--- a/INTERNAL MATERIAL RETURN SLIP.xlsx
+++ b/INTERNAL MATERIAL RETURN SLIP.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\shadab\JAFURAPHASEII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1967270-4EAD-4C2E-8C3D-BAAFF6FA59A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF7D91-3D97-4AAD-A40D-321354050074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4A8FFE14-4D2F-445F-895F-156536B7ABE9}"/>
+    <workbookView xWindow="1920" yWindow="1200" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{4A8FFE14-4D2F-445F-895F-156536B7ABE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="MAIN" sheetId="3" r:id="rId1"/>
+    <sheet name="INTERNAL-MATERIAL-RETURN" sheetId="3" r:id="rId1"/>
     <sheet name="REFRENCE" sheetId="1" r:id="rId2"/>
     <sheet name="DATA PULL" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B2F32-F293-4FBE-8872-184976C35239}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1613,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF72AAA3-9442-4D67-8D77-99829A0C09F1}">
-  <dimension ref="B1:L36"/>
+  <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1635,7 +1635,7 @@
     <col min="12" max="12" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -1650,7 +1650,7 @@
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -1663,7 +1663,7 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -1676,7 +1676,7 @@
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="2:12" ht="7" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -1704,7 +1704,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="23"/>
       <c r="C6" s="24"/>
       <c r="D6" s="18" t="s">
@@ -1719,7 +1719,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="D7" s="5" t="s">
         <v>37</v>
@@ -1733,7 +1733,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
@@ -1746,7 +1746,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1759,7 +1759,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1772,7 +1772,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="2:12" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1804,668 +1804,844 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="7" cm="1">
-        <f t="array" ref="B12:J33">_xlfn._xlws.FILTER('DATA PULL'!A:I,'DATA PULL'!I:I=D7,'DATA PULL'!G1:G22=G7)</f>
+        <f t="array" ref="B12:M33">_xlfn._xlws.FILTER('DATA PULL'!A:L,'DATA PULL'!L:L=D7)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="str">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="str">
         <v>M211404544</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="E12" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
         <v>3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="H12" s="5">
         <v>1.4870000000000001</v>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="str">
         <v>YX25012094</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="K12" s="5" t="str">
         <v>APCS-1B</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="L12" t="str">
         <v>M</v>
       </c>
-      <c r="J12" s="5" t="str">
+      <c r="M12" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="str">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="str">
         <v>M231817305</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="E13" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
         <v>4</v>
       </c>
-      <c r="F13" s="5">
+      <c r="H13" s="5">
         <v>0.77</v>
       </c>
-      <c r="G13" s="10" t="str">
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="str">
         <v>22M805</v>
       </c>
-      <c r="H13" s="5" t="str">
+      <c r="K13" s="5" t="str">
         <v>APCS-1B</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="L13" t="str">
         <v>M</v>
       </c>
-      <c r="J13" s="5" t="str">
+      <c r="M13" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="str">
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5" t="str">
         <v>M192381274</v>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="E14" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
         <v>6</v>
       </c>
-      <c r="F14" s="5">
+      <c r="H14" s="5">
         <v>1.7150000000000001</v>
       </c>
-      <c r="G14" s="10">
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
         <v>947930</v>
       </c>
-      <c r="H14" s="5" t="str">
+      <c r="K14" s="5" t="str">
         <v>APCS-11C</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="L14" t="str">
         <v>M</v>
       </c>
-      <c r="J14" s="5" t="str">
+      <c r="M14" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="7">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="str">
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5" t="str">
         <v>M191090685</v>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="E15" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
         <v>6</v>
       </c>
-      <c r="F15" s="5">
+      <c r="H15" s="5">
         <v>0.71399999999999997</v>
       </c>
-      <c r="G15" s="10">
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
         <v>951552</v>
       </c>
-      <c r="H15" s="5" t="str">
+      <c r="K15" s="5" t="str">
         <v>APCS-11A</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="L15" t="str">
         <v>M</v>
       </c>
-      <c r="J15" s="5" t="str">
+      <c r="M15" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="7">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="str">
         <v>M191090397</v>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="E16" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
         <v>12</v>
       </c>
-      <c r="F16" s="5">
+      <c r="H16" s="5">
         <v>1.883</v>
       </c>
-      <c r="G16" s="10">
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
         <v>946944</v>
       </c>
-      <c r="H16" s="5" t="str">
+      <c r="K16" s="5" t="str">
         <v>APCS-1D</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="L16" t="str">
         <v>M</v>
       </c>
-      <c r="J16" s="5" t="str">
+      <c r="M16" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="7">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="str">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="str">
         <v>M191090685</v>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="E17" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
         <v>6</v>
       </c>
-      <c r="F17" s="5">
+      <c r="H17" s="5">
         <v>3.2770000000000001</v>
       </c>
-      <c r="G17" s="10">
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
         <v>946841</v>
       </c>
-      <c r="H17" s="5" t="str">
+      <c r="K17" s="5" t="str">
         <v>APCS-1D</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="L17" t="str">
         <v>M</v>
       </c>
-      <c r="J17" s="5" t="str">
+      <c r="M17" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <v>7</v>
       </c>
-      <c r="C18" s="5" t="str">
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="str">
         <v>M192809156</v>
       </c>
-      <c r="D18" s="5" t="str">
+      <c r="E18" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
         <v>2</v>
       </c>
-      <c r="F18" s="5">
+      <c r="H18" s="5">
         <v>7.06</v>
       </c>
-      <c r="G18" s="10">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
         <v>745601</v>
       </c>
-      <c r="H18" s="5" t="str">
+      <c r="K18" s="5" t="str">
         <v>APCS-1D</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="L18" t="str">
         <v>M</v>
       </c>
-      <c r="J18" s="5" t="str">
+      <c r="M18" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <v>8</v>
       </c>
-      <c r="C19" s="5" t="str">
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="str">
         <v>M191090626</v>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="E19" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
         <v>4</v>
       </c>
-      <c r="F19" s="5">
+      <c r="H19" s="5">
         <v>6.4240000000000004</v>
       </c>
-      <c r="G19" s="10">
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
         <v>744685</v>
       </c>
-      <c r="H19" s="5" t="str">
+      <c r="K19" s="5" t="str">
         <v>APCS-1D</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="L19" t="str">
         <v>M</v>
       </c>
-      <c r="J19" s="5" t="str">
+      <c r="M19" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="7">
         <v>9</v>
       </c>
-      <c r="C20" s="5" t="str">
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5" t="str">
         <v>M194129270</v>
       </c>
-      <c r="D20" s="5" t="str">
+      <c r="E20" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
         <v>3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="H20" s="5">
         <v>0.5</v>
       </c>
-      <c r="G20" s="10">
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
         <v>744398</v>
       </c>
-      <c r="H20" s="5" t="str">
+      <c r="K20" s="5" t="str">
         <v>APCS-11C</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="L20" t="str">
         <v>M</v>
       </c>
-      <c r="J20" s="5" t="str">
+      <c r="M20" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="7">
         <v>10</v>
       </c>
-      <c r="C21" s="5" t="str">
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="str">
         <v>M191090585</v>
       </c>
-      <c r="D21" s="5" t="str">
+      <c r="E21" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
         <v>3</v>
       </c>
-      <c r="F21" s="5">
+      <c r="H21" s="5">
         <v>0.89200000000000002</v>
       </c>
-      <c r="G21" s="10">
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
         <v>744687</v>
       </c>
-      <c r="H21" s="5" t="str">
+      <c r="K21" s="5" t="str">
         <v>APCS-1D</v>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="L21" t="str">
         <v>M</v>
       </c>
-      <c r="J21" s="5" t="str">
+      <c r="M21" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="7">
         <v>11</v>
       </c>
-      <c r="C22" s="5" t="str">
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="str">
         <v>M192381274</v>
       </c>
-      <c r="D22" s="5" t="str">
+      <c r="E22" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
         <v>6</v>
       </c>
-      <c r="F22" s="5">
+      <c r="H22" s="5">
         <v>0.73499999999999999</v>
       </c>
-      <c r="G22" s="10">
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
         <v>947930</v>
       </c>
-      <c r="H22" s="5" t="str">
+      <c r="K22" s="5" t="str">
         <v>APCS-11C</v>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="L22" t="str">
         <v>M</v>
       </c>
-      <c r="J22" s="5" t="str">
+      <c r="M22" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="7">
         <v>12</v>
       </c>
-      <c r="C23" s="5" t="str">
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="str">
         <v>M191090685</v>
       </c>
-      <c r="D23" s="5" t="str">
+      <c r="E23" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
         <v>6</v>
       </c>
-      <c r="F23" s="5">
+      <c r="H23" s="5">
         <v>8.7769999999999992</v>
       </c>
-      <c r="G23" s="10">
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
         <v>946163</v>
       </c>
-      <c r="H23" s="5" t="str">
+      <c r="K23" s="5" t="str">
         <v>APCS-11A</v>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="L23" t="str">
         <v>M</v>
       </c>
-      <c r="J23" s="5" t="str">
+      <c r="M23" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="7">
         <v>13</v>
       </c>
-      <c r="C24" s="5" t="str">
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="str">
         <v>M231817632</v>
       </c>
-      <c r="D24" s="5" t="str">
+      <c r="E24" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
         <v>18</v>
       </c>
-      <c r="F24" s="5">
+      <c r="H24" s="5">
         <v>3.2629999999999999</v>
       </c>
-      <c r="G24" s="10">
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
         <v>2313123</v>
       </c>
-      <c r="H24" s="5" t="str">
+      <c r="K24" s="5" t="str">
         <v>APCS-1B</v>
       </c>
-      <c r="I24" s="5" t="str">
+      <c r="L24" t="str">
         <v>M</v>
       </c>
-      <c r="J24" s="5" t="str">
+      <c r="M24" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>14</v>
       </c>
-      <c r="C25" s="5" t="str">
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5" t="str">
         <v>M193342137</v>
       </c>
-      <c r="D25" s="5" t="str">
+      <c r="E25" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
         <v>14</v>
       </c>
-      <c r="F25" s="5">
+      <c r="H25" s="5">
         <v>3.415</v>
       </c>
-      <c r="G25" s="10">
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
         <v>950957</v>
       </c>
-      <c r="H25" s="5" t="str">
+      <c r="K25" s="5" t="str">
         <v>APCS-11C</v>
       </c>
-      <c r="I25" s="5" t="str">
+      <c r="L25" t="str">
         <v>M</v>
       </c>
-      <c r="J25" s="5" t="str">
+      <c r="M25" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
         <v>15</v>
       </c>
-      <c r="C26" s="5" t="str">
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5" t="str">
         <v>M193342137</v>
       </c>
-      <c r="D26" s="5" t="str">
+      <c r="E26" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
         <v>14</v>
       </c>
-      <c r="F26" s="5">
+      <c r="H26" s="5">
         <v>5.2649999999999997</v>
       </c>
-      <c r="G26" s="10">
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
         <v>950957</v>
       </c>
-      <c r="H26" s="5" t="str">
+      <c r="K26" s="5" t="str">
         <v>APCS-11C</v>
       </c>
-      <c r="I26" s="5" t="str">
+      <c r="L26" t="str">
         <v>M</v>
       </c>
-      <c r="J26" s="5" t="str">
+      <c r="M26" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="7">
         <v>16</v>
       </c>
-      <c r="C27" s="5" t="str">
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5" t="str">
         <v>M211040023</v>
       </c>
-      <c r="D27" s="5" t="str">
+      <c r="E27" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
         <v>14</v>
       </c>
-      <c r="F27" s="5">
+      <c r="H27" s="5">
         <v>3.0449999999999999</v>
       </c>
-      <c r="G27" s="10">
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
         <v>947405</v>
       </c>
-      <c r="H27" s="5" t="str">
+      <c r="K27" s="5" t="str">
         <v>APCS-11C</v>
       </c>
-      <c r="I27" s="5" t="str">
+      <c r="L27" t="str">
         <v>M</v>
       </c>
-      <c r="J27" s="5" t="str">
+      <c r="M27" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="7">
         <v>17</v>
       </c>
-      <c r="C28" s="5" t="str">
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="str">
         <v>M211040023</v>
       </c>
-      <c r="D28" s="5" t="str">
+      <c r="E28" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
         <v>14</v>
       </c>
-      <c r="F28" s="5">
+      <c r="H28" s="5">
         <v>0.625</v>
       </c>
-      <c r="G28" s="10">
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
         <v>947404</v>
       </c>
-      <c r="H28" s="5" t="str">
+      <c r="K28" s="5" t="str">
         <v>APCS-11C</v>
       </c>
-      <c r="I28" s="5" t="str">
+      <c r="L28" t="str">
         <v>M</v>
       </c>
-      <c r="J28" s="5" t="str">
+      <c r="M28" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <v>18</v>
       </c>
-      <c r="C29" s="5" t="str">
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5" t="str">
         <v>M191090397</v>
       </c>
-      <c r="D29" s="5" t="str">
+      <c r="E29" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
         <v>12</v>
       </c>
-      <c r="F29" s="5">
+      <c r="H29" s="5">
         <v>0.39300000000000002</v>
       </c>
-      <c r="G29" s="10">
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
         <v>946950</v>
       </c>
-      <c r="H29" s="5" t="str">
+      <c r="K29" s="5" t="str">
         <v>APCS-1D</v>
       </c>
-      <c r="I29" s="5" t="str">
+      <c r="L29" t="str">
         <v>M</v>
       </c>
-      <c r="J29" s="5" t="str">
+      <c r="M29" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="7">
         <v>19</v>
       </c>
-      <c r="C30" s="5" t="str">
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5" t="str">
         <v>M246832680</v>
       </c>
-      <c r="D30" s="5" t="str">
+      <c r="E30" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
         <v>48</v>
       </c>
-      <c r="F30" s="5">
+      <c r="H30" s="5">
         <v>6.84</v>
       </c>
-      <c r="G30" s="10" t="str">
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="str">
         <v>A0403532</v>
       </c>
-      <c r="H30" s="5" t="str">
+      <c r="K30" s="5" t="str">
         <v>APCS-1A</v>
       </c>
-      <c r="I30" s="5" t="str">
+      <c r="L30" t="str">
         <v>M</v>
       </c>
-      <c r="J30" s="5" t="str">
+      <c r="M30" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="7">
         <v>20</v>
       </c>
-      <c r="C31" s="5" t="str">
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5" t="str">
         <v>M191090397</v>
       </c>
-      <c r="D31" s="5" t="str">
+      <c r="E31" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
         <v>12</v>
       </c>
-      <c r="F31" s="5">
+      <c r="H31" s="5">
         <v>1.0249999999999999</v>
       </c>
-      <c r="G31" s="10">
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
         <v>946946</v>
       </c>
-      <c r="H31" s="5" t="str">
+      <c r="K31" s="5" t="str">
         <v>APCS-11A</v>
       </c>
-      <c r="I31" s="5" t="str">
+      <c r="L31" t="str">
         <v>M</v>
       </c>
-      <c r="J31" s="5" t="str">
+      <c r="M31" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="7">
         <v>21</v>
       </c>
-      <c r="C32" s="5" t="str">
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5" t="str">
         <v>M191090397</v>
       </c>
-      <c r="D32" s="5" t="str">
+      <c r="E32" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
         <v>12</v>
       </c>
-      <c r="F32" s="5">
+      <c r="H32" s="5">
         <v>6.1429999999999998</v>
       </c>
-      <c r="G32" s="10">
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
         <v>946946</v>
       </c>
-      <c r="H32" s="5" t="str">
+      <c r="K32" s="5" t="str">
         <v>APCS-11A</v>
       </c>
-      <c r="I32" s="5" t="str">
+      <c r="L32" t="str">
         <v>M</v>
       </c>
-      <c r="J32" s="5" t="str">
+      <c r="M32" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="7">
         <v>22</v>
       </c>
-      <c r="C33" s="5" t="str">
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5" t="str">
         <v>M323708399</v>
       </c>
-      <c r="D33" s="5" t="str">
+      <c r="E33" s="5" t="str">
         <v>RANDOM PIPE</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
         <v>30</v>
       </c>
-      <c r="F33" s="5">
+      <c r="H33" s="5">
         <v>7.09</v>
       </c>
-      <c r="G33" s="10">
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
         <v>25200380</v>
       </c>
-      <c r="H33" s="5" t="str">
+      <c r="K33" s="5" t="str">
         <v>APCS-2C</v>
       </c>
-      <c r="I33" s="5" t="str">
+      <c r="L33" t="str">
         <v>M</v>
       </c>
-      <c r="J33" s="5" t="str">
+      <c r="M33" t="str">
         <v>RT-SMP1-0001</v>
       </c>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -2476,7 +2652,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="H36" s="6"/>
     </row>
   </sheetData>
@@ -2503,673 +2679,723 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E9D4EB-2A44-49B9-B7B3-96FF2104D509}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" customWidth="1"/>
-    <col min="5" max="5" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="32.7265625" customWidth="1"/>
+    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="5">
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5">
         <v>3</v>
       </c>
-      <c r="E1" s="5">
+      <c r="G1" s="5">
         <v>1.4870000000000001</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
         <v>4</v>
       </c>
-      <c r="E2" s="5">
+      <c r="G2" s="5">
         <v>0.77</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
         <v>6</v>
       </c>
-      <c r="E3" s="5">
+      <c r="G3" s="5">
         <v>1.7150000000000001</v>
       </c>
-      <c r="F3" s="10">
+      <c r="I3" s="10">
         <v>947930</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="G4" s="5">
         <v>0.71399999999999997</v>
       </c>
-      <c r="F4" s="10">
+      <c r="I4" s="10">
         <v>951552</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
         <v>12</v>
       </c>
-      <c r="E5" s="5">
+      <c r="G5" s="5">
         <v>1.883</v>
       </c>
-      <c r="F5" s="10">
+      <c r="I5" s="10">
         <v>946944</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
         <v>6</v>
       </c>
-      <c r="E6" s="5">
+      <c r="G6" s="5">
         <v>3.2770000000000001</v>
       </c>
-      <c r="F6" s="10">
+      <c r="I6" s="10">
         <v>946841</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="5">
         <v>7.06</v>
       </c>
-      <c r="F7" s="10">
+      <c r="I7" s="10">
         <v>745601</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="G8" s="5">
         <v>6.4240000000000004</v>
       </c>
-      <c r="F8" s="10">
+      <c r="I8" s="10">
         <v>744685</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="5">
+      <c r="G9" s="5">
         <v>0.5</v>
       </c>
-      <c r="F9" s="10">
+      <c r="I9" s="10">
         <v>744398</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="G10" s="5">
         <v>0.89200000000000002</v>
       </c>
-      <c r="F10" s="10">
+      <c r="I10" s="10">
         <v>744687</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
         <v>6</v>
       </c>
-      <c r="E11" s="5">
+      <c r="G11" s="5">
         <v>0.73499999999999999</v>
       </c>
-      <c r="F11" s="10">
+      <c r="I11" s="10">
         <v>947930</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
         <v>6</v>
       </c>
-      <c r="E12" s="5">
+      <c r="G12" s="5">
         <v>8.7769999999999992</v>
       </c>
-      <c r="F12" s="10">
+      <c r="I12" s="10">
         <v>946163</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
         <v>18</v>
       </c>
-      <c r="E13" s="5">
+      <c r="G13" s="5">
         <v>3.2629999999999999</v>
       </c>
-      <c r="F13" s="10">
+      <c r="I13" s="10">
         <v>2313123</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
         <v>14</v>
       </c>
-      <c r="E14" s="5">
+      <c r="G14" s="5">
         <v>3.415</v>
       </c>
-      <c r="F14" s="10">
+      <c r="I14" s="10">
         <v>950957</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
         <v>14</v>
       </c>
-      <c r="E15" s="5">
+      <c r="G15" s="5">
         <v>5.2649999999999997</v>
       </c>
-      <c r="F15" s="10">
+      <c r="I15" s="10">
         <v>950957</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
         <v>14</v>
       </c>
-      <c r="E16" s="5">
+      <c r="G16" s="5">
         <v>3.0449999999999999</v>
       </c>
-      <c r="F16" s="10">
+      <c r="I16" s="10">
         <v>947405</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
         <v>14</v>
       </c>
-      <c r="E17" s="5">
+      <c r="G17" s="5">
         <v>0.625</v>
       </c>
-      <c r="F17" s="10">
+      <c r="I17" s="10">
         <v>947404</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>18</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
         <v>12</v>
       </c>
-      <c r="E18" s="5">
+      <c r="G18" s="5">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F18" s="10">
+      <c r="I18" s="10">
         <v>946950</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>19</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
         <v>48</v>
       </c>
-      <c r="E19" s="5">
+      <c r="G19" s="5">
         <v>6.84</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
         <v>12</v>
       </c>
-      <c r="E20" s="5">
+      <c r="G20" s="5">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F20" s="10">
+      <c r="I20" s="10">
         <v>946946</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>21</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
         <v>12</v>
       </c>
-      <c r="E21" s="5">
+      <c r="G21" s="5">
         <v>6.1429999999999998</v>
       </c>
-      <c r="F21" s="10">
+      <c r="I21" s="10">
         <v>946946</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
         <v>30</v>
       </c>
-      <c r="E22" s="5">
+      <c r="G22" s="5">
         <v>7.09</v>
       </c>
-      <c r="F22" s="10">
+      <c r="I22" s="10">
         <v>25200380</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>